--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il11</t>
   </si>
   <si>
     <t>Il11ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H2">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I2">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J2">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.957488</v>
+        <v>3.526426</v>
       </c>
       <c r="N2">
-        <v>11.872464</v>
+        <v>10.579278</v>
       </c>
       <c r="O2">
-        <v>0.08218225792328317</v>
+        <v>0.07209186231283601</v>
       </c>
       <c r="P2">
-        <v>0.08218225792328315</v>
+        <v>0.07209186231283601</v>
       </c>
       <c r="Q2">
-        <v>4.000278998581333</v>
+        <v>0.5809974911053334</v>
       </c>
       <c r="R2">
-        <v>36.002510987232</v>
+        <v>5.228977419948</v>
       </c>
       <c r="S2">
-        <v>0.06148826190019346</v>
+        <v>0.006744801389582332</v>
       </c>
       <c r="T2">
-        <v>0.06148826190019344</v>
+        <v>0.006744801389582331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H3">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I3">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J3">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>107.162695</v>
       </c>
       <c r="O3">
-        <v>0.7417897616067001</v>
+        <v>0.7302538276253295</v>
       </c>
       <c r="P3">
-        <v>0.7417897616067001</v>
+        <v>0.7302538276253295</v>
       </c>
       <c r="Q3">
-        <v>36.10713650004556</v>
+        <v>5.885208511874445</v>
       </c>
       <c r="R3">
-        <v>324.9642285004101</v>
+        <v>52.96687660687</v>
       </c>
       <c r="S3">
-        <v>0.5550025551638272</v>
+        <v>0.06832140096397765</v>
       </c>
       <c r="T3">
-        <v>0.5550025551638272</v>
+        <v>0.06832140096397765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H4">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I4">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J4">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.565675</v>
+        <v>5.022820666666667</v>
       </c>
       <c r="N4">
-        <v>13.697025</v>
+        <v>15.068462</v>
       </c>
       <c r="O4">
-        <v>0.09481203239122542</v>
+        <v>0.1026831403589358</v>
       </c>
       <c r="P4">
-        <v>0.0948120323912254</v>
+        <v>0.1026831403589358</v>
       </c>
       <c r="Q4">
-        <v>4.615042121883333</v>
+        <v>0.8275364932102223</v>
       </c>
       <c r="R4">
-        <v>41.53537909695</v>
+        <v>7.447828438892</v>
       </c>
       <c r="S4">
-        <v>0.07093778178257666</v>
+        <v>0.009606873308033739</v>
       </c>
       <c r="T4">
-        <v>0.07093778178257666</v>
+        <v>0.009606873308033738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H5">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I5">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J5">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4845093333333333</v>
+        <v>0.1850483333333333</v>
       </c>
       <c r="N5">
-        <v>1.453528</v>
+        <v>0.555145</v>
       </c>
       <c r="O5">
-        <v>0.01006145084918463</v>
+        <v>0.003783002668391865</v>
       </c>
       <c r="P5">
-        <v>0.01006145084918463</v>
+        <v>0.003783002668391864</v>
       </c>
       <c r="Q5">
-        <v>0.4897481712515555</v>
+        <v>0.03048769984111111</v>
       </c>
       <c r="R5">
-        <v>4.407733541263999</v>
+        <v>0.27438929857</v>
       </c>
       <c r="S5">
-        <v>0.007527915885301012</v>
+        <v>0.0003539317869725782</v>
       </c>
       <c r="T5">
-        <v>0.007527915885301012</v>
+        <v>0.0003539317869725781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.010812666666667</v>
+        <v>0.1647553333333333</v>
       </c>
       <c r="H6">
-        <v>3.032438</v>
+        <v>0.494266</v>
       </c>
       <c r="I6">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970846</v>
       </c>
       <c r="J6">
-        <v>0.7481938736411029</v>
+        <v>0.09355842910970845</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.426446</v>
+        <v>4.460535666666666</v>
       </c>
       <c r="N6">
-        <v>10.279338</v>
+        <v>13.381607</v>
       </c>
       <c r="O6">
-        <v>0.07115449722960675</v>
+        <v>0.09118816703450675</v>
       </c>
       <c r="P6">
-        <v>0.07115449722960675</v>
+        <v>0.09118816703450675</v>
       </c>
       <c r="Q6">
-        <v>3.463495018449333</v>
+        <v>0.7348970406068888</v>
       </c>
       <c r="R6">
-        <v>31.171455166044</v>
+        <v>6.614073365462</v>
       </c>
       <c r="S6">
-        <v>0.0532373589092046</v>
+        <v>0.008531421661142154</v>
       </c>
       <c r="T6">
-        <v>0.0532373589092046</v>
+        <v>0.008531421661142152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H7">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I7">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J7">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.957488</v>
+        <v>3.526426</v>
       </c>
       <c r="N7">
-        <v>11.872464</v>
+        <v>10.579278</v>
       </c>
       <c r="O7">
-        <v>0.08218225792328317</v>
+        <v>0.07209186231283601</v>
       </c>
       <c r="P7">
-        <v>0.08218225792328315</v>
+        <v>0.07209186231283601</v>
       </c>
       <c r="Q7">
-        <v>0.3756078244053334</v>
+        <v>3.564556068862667</v>
       </c>
       <c r="R7">
-        <v>3.380470419648</v>
+        <v>32.081004619764</v>
       </c>
       <c r="S7">
-        <v>0.005773465372537175</v>
+        <v>0.04138094070039668</v>
       </c>
       <c r="T7">
-        <v>0.005773465372537174</v>
+        <v>0.04138094070039668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H8">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I8">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J8">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>107.162695</v>
       </c>
       <c r="O8">
-        <v>0.7417897616067001</v>
+        <v>0.7302538276253295</v>
       </c>
       <c r="P8">
-        <v>0.7417897616067001</v>
+        <v>0.7302538276253295</v>
       </c>
       <c r="Q8">
-        <v>3.39029427474889</v>
+        <v>36.10713650004556</v>
       </c>
       <c r="R8">
-        <v>30.51264847274001</v>
+        <v>324.9642285004101</v>
       </c>
       <c r="S8">
-        <v>0.05211219076429819</v>
+        <v>0.4191678418025971</v>
       </c>
       <c r="T8">
-        <v>0.05211219076429819</v>
+        <v>0.4191678418025971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H9">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I9">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J9">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.565675</v>
+        <v>5.022820666666667</v>
       </c>
       <c r="N9">
-        <v>13.697025</v>
+        <v>15.068462</v>
       </c>
       <c r="O9">
-        <v>0.09481203239122542</v>
+        <v>0.1026831403589358</v>
       </c>
       <c r="P9">
-        <v>0.0948120323912254</v>
+        <v>0.1026831403589358</v>
       </c>
       <c r="Q9">
-        <v>0.4333312580333334</v>
+        <v>5.077130752261778</v>
       </c>
       <c r="R9">
-        <v>3.8999813223</v>
+        <v>45.694176770356</v>
       </c>
       <c r="S9">
-        <v>0.006660731887186687</v>
+        <v>0.05894042414502963</v>
       </c>
       <c r="T9">
-        <v>0.006660731887186687</v>
+        <v>0.05894042414502962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H10">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I10">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J10">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4845093333333333</v>
+        <v>0.1850483333333333</v>
       </c>
       <c r="N10">
-        <v>1.453528</v>
+        <v>0.555145</v>
       </c>
       <c r="O10">
-        <v>0.01006145084918463</v>
+        <v>0.003783002668391865</v>
       </c>
       <c r="P10">
-        <v>0.01006145084918463</v>
+        <v>0.003783002668391864</v>
       </c>
       <c r="Q10">
-        <v>0.0459851038328889</v>
+        <v>0.1870491992788889</v>
       </c>
       <c r="R10">
-        <v>0.4138659344960001</v>
+        <v>1.68344279351</v>
       </c>
       <c r="S10">
-        <v>0.0007068367253851614</v>
+        <v>0.002171454642284824</v>
       </c>
       <c r="T10">
-        <v>0.0007068367253851614</v>
+        <v>0.002171454642284824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.09491066666666668</v>
+        <v>1.010812666666667</v>
       </c>
       <c r="H11">
-        <v>0.284732</v>
+        <v>3.032438</v>
       </c>
       <c r="I11">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="J11">
-        <v>0.07025196822806552</v>
+        <v>0.5740029369865337</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.426446</v>
+        <v>4.460535666666666</v>
       </c>
       <c r="N11">
-        <v>10.279338</v>
+        <v>13.381607</v>
       </c>
       <c r="O11">
-        <v>0.07115449722960675</v>
+        <v>0.09118816703450675</v>
       </c>
       <c r="P11">
-        <v>0.07115449722960675</v>
+        <v>0.09118816703450675</v>
       </c>
       <c r="Q11">
-        <v>0.3252062741573334</v>
+        <v>4.50876595198511</v>
       </c>
       <c r="R11">
-        <v>2.926856467416</v>
+        <v>40.578893567866</v>
       </c>
       <c r="S11">
-        <v>0.004998743478658309</v>
+        <v>0.05234227569622549</v>
       </c>
       <c r="T11">
-        <v>0.004998743478658309</v>
+        <v>0.05234227569622549</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H12">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I12">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J12">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.957488</v>
+        <v>3.526426</v>
       </c>
       <c r="N12">
-        <v>11.872464</v>
+        <v>10.579278</v>
       </c>
       <c r="O12">
-        <v>0.08218225792328317</v>
+        <v>0.07209186231283601</v>
       </c>
       <c r="P12">
-        <v>0.08218225792328315</v>
+        <v>0.07209186231283601</v>
       </c>
       <c r="Q12">
-        <v>0.9706939758026666</v>
+        <v>0.6893328242513334</v>
       </c>
       <c r="R12">
-        <v>8.736245782224</v>
+        <v>6.203995418262</v>
       </c>
       <c r="S12">
-        <v>0.01492053065055254</v>
+        <v>0.008002466554631266</v>
       </c>
       <c r="T12">
-        <v>0.01492053065055254</v>
+        <v>0.008002466554631263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H13">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I13">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J13">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>107.162695</v>
       </c>
       <c r="O13">
-        <v>0.7417897616067001</v>
+        <v>0.7302538276253295</v>
       </c>
       <c r="P13">
-        <v>0.7417897616067001</v>
+        <v>0.7302538276253295</v>
       </c>
       <c r="Q13">
-        <v>8.761633850166112</v>
+        <v>6.982590229572779</v>
       </c>
       <c r="R13">
-        <v>78.85470465149501</v>
+        <v>62.84331206615501</v>
       </c>
       <c r="S13">
-        <v>0.1346750156785747</v>
+        <v>0.08106090818689624</v>
       </c>
       <c r="T13">
-        <v>0.1346750156785747</v>
+        <v>0.08106090818689621</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H14">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I14">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J14">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.565675</v>
+        <v>5.022820666666667</v>
       </c>
       <c r="N14">
-        <v>13.697025</v>
+        <v>15.068462</v>
       </c>
       <c r="O14">
-        <v>0.09481203239122542</v>
+        <v>0.1026831403589358</v>
       </c>
       <c r="P14">
-        <v>0.0948120323912254</v>
+        <v>0.1026831403589358</v>
       </c>
       <c r="Q14">
-        <v>1.119870285891666</v>
+        <v>0.981842566910889</v>
       </c>
       <c r="R14">
-        <v>10.078832573025</v>
+        <v>8.836583102198</v>
       </c>
       <c r="S14">
-        <v>0.01721351872146207</v>
+        <v>0.01139821292008133</v>
       </c>
       <c r="T14">
-        <v>0.01721351872146207</v>
+        <v>0.01139821292008132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2452803333333333</v>
+        <v>0.1954763333333333</v>
       </c>
       <c r="H15">
-        <v>0.735841</v>
+        <v>0.586429</v>
       </c>
       <c r="I15">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731708</v>
       </c>
       <c r="J15">
-        <v>0.1815541581308316</v>
+        <v>0.1110037429731707</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4845093333333333</v>
+        <v>0.1850483333333333</v>
       </c>
       <c r="N15">
-        <v>1.453528</v>
+        <v>0.555145</v>
       </c>
       <c r="O15">
-        <v>0.01006145084918463</v>
+        <v>0.003783002668391865</v>
       </c>
       <c r="P15">
-        <v>0.01006145084918463</v>
+        <v>0.003783002668391864</v>
       </c>
       <c r="Q15">
-        <v>0.1188406107831111</v>
+        <v>0.03617256968944445</v>
       </c>
       <c r="R15">
-        <v>1.069565497048</v>
+        <v>0.325553127205</v>
       </c>
       <c r="S15">
-        <v>0.001826698238498456</v>
+        <v>0.0004199274558689897</v>
       </c>
       <c r="T15">
-        <v>0.001826698238498456</v>
+        <v>0.0004199274558689895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1954763333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.586429</v>
+      </c>
+      <c r="I16">
+        <v>0.1110037429731708</v>
+      </c>
+      <c r="J16">
+        <v>0.1110037429731707</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.460535666666666</v>
+      </c>
+      <c r="N16">
+        <v>13.381607</v>
+      </c>
+      <c r="O16">
+        <v>0.09118816703450675</v>
+      </c>
+      <c r="P16">
+        <v>0.09118816703450675</v>
+      </c>
+      <c r="Q16">
+        <v>0.8719291568225555</v>
+      </c>
+      <c r="R16">
+        <v>7.847362411402999</v>
+      </c>
+      <c r="S16">
+        <v>0.01012222785569295</v>
+      </c>
+      <c r="T16">
+        <v>0.01012222785569295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.729803</v>
+      </c>
+      <c r="I17">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J17">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.526426</v>
+      </c>
+      <c r="N17">
+        <v>10.579278</v>
+      </c>
+      <c r="O17">
+        <v>0.07209186231283601</v>
+      </c>
+      <c r="P17">
+        <v>0.07209186231283601</v>
+      </c>
+      <c r="Q17">
+        <v>0.8578654246926667</v>
+      </c>
+      <c r="R17">
+        <v>7.720788822234</v>
+      </c>
+      <c r="S17">
+        <v>0.00995896195271646</v>
+      </c>
+      <c r="T17">
+        <v>0.00995896195271646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.729803</v>
+      </c>
+      <c r="I18">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J18">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>35.72089833333334</v>
+      </c>
+      <c r="N18">
+        <v>107.162695</v>
+      </c>
+      <c r="O18">
+        <v>0.7302538276253295</v>
+      </c>
+      <c r="P18">
+        <v>0.7302538276253295</v>
+      </c>
+      <c r="Q18">
+        <v>8.689739588787223</v>
+      </c>
+      <c r="R18">
+        <v>78.207656299085</v>
+      </c>
+      <c r="S18">
+        <v>0.1008792095505533</v>
+      </c>
+      <c r="T18">
+        <v>0.1008792095505533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.729803</v>
+      </c>
+      <c r="I19">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J19">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.022820666666667</v>
+      </c>
+      <c r="N19">
+        <v>15.068462</v>
+      </c>
+      <c r="O19">
+        <v>0.1026831403589358</v>
+      </c>
+      <c r="P19">
+        <v>0.1026831403589358</v>
+      </c>
+      <c r="Q19">
+        <v>1.221889863665111</v>
+      </c>
+      <c r="R19">
+        <v>10.997008772986</v>
+      </c>
+      <c r="S19">
+        <v>0.01418492261418537</v>
+      </c>
+      <c r="T19">
+        <v>0.01418492261418537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.729803</v>
+      </c>
+      <c r="I20">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J20">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1850483333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.555145</v>
+      </c>
+      <c r="O20">
+        <v>0.003783002668391865</v>
+      </c>
+      <c r="P20">
+        <v>0.003783002668391864</v>
+      </c>
+      <c r="Q20">
+        <v>0.04501627627055556</v>
+      </c>
+      <c r="R20">
+        <v>0.405146486435</v>
+      </c>
+      <c r="S20">
+        <v>0.0005225940686350031</v>
+      </c>
+      <c r="T20">
+        <v>0.0005225940686350031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.2452803333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.735841</v>
-      </c>
-      <c r="I16">
-        <v>0.1815541581308316</v>
-      </c>
-      <c r="J16">
-        <v>0.1815541581308316</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.426446</v>
-      </c>
-      <c r="N16">
-        <v>10.279338</v>
-      </c>
-      <c r="O16">
-        <v>0.07115449722960675</v>
-      </c>
-      <c r="P16">
-        <v>0.07115449722960675</v>
-      </c>
-      <c r="Q16">
-        <v>0.8404398170286667</v>
-      </c>
-      <c r="R16">
-        <v>7.563958353258</v>
-      </c>
-      <c r="S16">
-        <v>0.01291839484174385</v>
-      </c>
-      <c r="T16">
-        <v>0.01291839484174384</v>
+      <c r="G21">
+        <v>0.2432676666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.729803</v>
+      </c>
+      <c r="I21">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="J21">
+        <v>0.138142664556236</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.460535666666666</v>
+      </c>
+      <c r="N21">
+        <v>13.381607</v>
+      </c>
+      <c r="O21">
+        <v>0.09118816703450675</v>
+      </c>
+      <c r="P21">
+        <v>0.09118816703450675</v>
+      </c>
+      <c r="Q21">
+        <v>1.085104103713444</v>
+      </c>
+      <c r="R21">
+        <v>9.765936933420999</v>
+      </c>
+      <c r="S21">
+        <v>0.01259697637014589</v>
+      </c>
+      <c r="T21">
+        <v>0.01259697637014589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.44003</v>
+      </c>
+      <c r="I22">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J22">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.526426</v>
+      </c>
+      <c r="N22">
+        <v>10.579278</v>
+      </c>
+      <c r="O22">
+        <v>0.07209186231283601</v>
+      </c>
+      <c r="P22">
+        <v>0.07209186231283601</v>
+      </c>
+      <c r="Q22">
+        <v>0.5172444109266666</v>
+      </c>
+      <c r="R22">
+        <v>4.65519969834</v>
+      </c>
+      <c r="S22">
+        <v>0.006004691715509286</v>
+      </c>
+      <c r="T22">
+        <v>0.006004691715509286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.44003</v>
+      </c>
+      <c r="I23">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J23">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.72089833333334</v>
+      </c>
+      <c r="N23">
+        <v>107.162695</v>
+      </c>
+      <c r="O23">
+        <v>0.7302538276253295</v>
+      </c>
+      <c r="P23">
+        <v>0.7302538276253295</v>
+      </c>
+      <c r="Q23">
+        <v>5.239422297872222</v>
+      </c>
+      <c r="R23">
+        <v>47.15480068085</v>
+      </c>
+      <c r="S23">
+        <v>0.0608244671213053</v>
+      </c>
+      <c r="T23">
+        <v>0.0608244671213053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.44003</v>
+      </c>
+      <c r="I24">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J24">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.022820666666667</v>
+      </c>
+      <c r="N24">
+        <v>15.068462</v>
+      </c>
+      <c r="O24">
+        <v>0.1026831403589358</v>
+      </c>
+      <c r="P24">
+        <v>0.1026831403589358</v>
+      </c>
+      <c r="Q24">
+        <v>0.7367305926511111</v>
+      </c>
+      <c r="R24">
+        <v>6.63057533386</v>
+      </c>
+      <c r="S24">
+        <v>0.008552707371605746</v>
+      </c>
+      <c r="T24">
+        <v>0.008552707371605744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.44003</v>
+      </c>
+      <c r="I25">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J25">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1850483333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.555145</v>
+      </c>
+      <c r="O25">
+        <v>0.003783002668391865</v>
+      </c>
+      <c r="P25">
+        <v>0.003783002668391864</v>
+      </c>
+      <c r="Q25">
+        <v>0.02714227270555555</v>
+      </c>
+      <c r="R25">
+        <v>0.24428045435</v>
+      </c>
+      <c r="S25">
+        <v>0.0003150947146304694</v>
+      </c>
+      <c r="T25">
+        <v>0.0003150947146304693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1466766666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.44003</v>
+      </c>
+      <c r="I26">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="J26">
+        <v>0.08329222637435107</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.460535666666666</v>
+      </c>
+      <c r="N26">
+        <v>13.381607</v>
+      </c>
+      <c r="O26">
+        <v>0.09118816703450675</v>
+      </c>
+      <c r="P26">
+        <v>0.09118816703450675</v>
+      </c>
+      <c r="Q26">
+        <v>0.6542565031344443</v>
+      </c>
+      <c r="R26">
+        <v>5.88830852821</v>
+      </c>
+      <c r="S26">
+        <v>0.007595265451300274</v>
+      </c>
+      <c r="T26">
+        <v>0.007595265451300274</v>
       </c>
     </row>
   </sheetData>
